--- a/230223cleanformat.xlsx
+++ b/230223cleanformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\WIES4\Documents\00projecten\SSKERN\scenariostudie-kern-meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2684F9C-AE0B-488E-9DD1-60F6377AD49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F06A27-B246-48D3-81C5-4645F17C177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B22CC473-667A-4082-9C96-2BE00749C2A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="104">
   <si>
     <t xml:space="preserve">Studie </t>
   </si>
@@ -348,31 +348,13 @@
   </si>
   <si>
     <t>Mtpa</t>
-  </si>
-  <si>
-    <t>Scenariostudie kernenergie</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Geen kernenergie</t>
-  </si>
-  <si>
-    <t>Grootschalig kernenergie</t>
-  </si>
-  <si>
-    <t>SMR</t>
-  </si>
-  <si>
-    <t>Nederland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -476,33 +458,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF44546A"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -542,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -572,15 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFA2B8E1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -588,7 +534,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -643,16 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -971,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851A059F-C881-4026-9367-20DDACC26F0F}">
-  <dimension ref="A1:Q239"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,7 +921,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="12"/>
       <c r="B1" s="28"/>
       <c r="C1" s="12"/>
@@ -993,44 +929,8 @@
       <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
       <c r="B2" s="29"/>
       <c r="C2" s="11"/>
@@ -1038,32 +938,8 @@
       <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" s="34"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="10"/>
@@ -1071,32 +947,8 @@
       <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35">
-        <v>2040</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35">
-        <v>2040</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35">
-        <v>2040</v>
-      </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35">
-        <v>2050</v>
-      </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35">
-        <v>2050</v>
-      </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35">
-        <v>2050</v>
-      </c>
-      <c r="Q3" s="35"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1104,32 +956,8 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="36"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
@@ -1137,20 +965,8 @@
       <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1176,7 +992,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1261,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,7 +1105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
